--- a/COVID NFLStats/TE/TE_aggregate.xlsx
+++ b/COVID NFLStats/TE/TE_aggregate.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,49 +490,49 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Hayden Hurst</t>
+          <t>Austin Hooper</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>2019-2021</t>
+          <t>Group1</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>10.1</v>
+        <v>9.700000000000001</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>7.5</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>59.46666666666667</v>
+        <v>56.33333333333334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Hayden Hurst</t>
+          <t>Austin Hooper</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>2022-2024</t>
+          <t>Group2</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>9.1</v>
+        <v>10.26666666666667</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>5.833333333333333</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>49.06666666666666</v>
+        <v>61.33333333333334</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Hayden Hurst</t>
+          <t>Austin Hooper</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -541,19 +541,19 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-1</v>
+        <v>0.5666666666666664</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-1.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-10.40000000000001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Austin Hooper</t>
+          <t>Chris Manhertz</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
@@ -562,19 +562,19 @@
         </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>9.700000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>6.666666666666667</v>
+        <v>8.466666666666667</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>56.33333333333334</v>
+        <v>72.23333333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Austin Hooper</t>
+          <t>Chris Manhertz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -583,19 +583,19 @@
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>10.26666666666667</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>7.666666666666667</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>61.33333333333334</v>
+        <v>54.16666666666666</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Austin Hooper</t>
+          <t>Chris Manhertz</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -604,19 +604,19 @@
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>0.5666666666666664</v>
+        <v>-2.166666666666666</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>1</v>
+        <v>-2.866666666666666</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>5</v>
+        <v>-18.06666666666667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Chris Manhertz</t>
+          <t>Dallas Goedert</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -625,19 +625,19 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>10.5</v>
+        <v>12.23333333333333</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>8.466666666666667</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>72.23333333333333</v>
+        <v>61.96666666666667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>Chris Manhertz</t>
+          <t>Dallas Goedert</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -646,19 +646,19 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>8.333333333333334</v>
+        <v>11.53333333333333</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>5.600000000000001</v>
+        <v>8.933333333333332</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>54.16666666666666</v>
+        <v>61.86666666666667</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>Chris Manhertz</t>
+          <t>Dallas Goedert</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-2.166666666666666</v>
+        <v>-0.7000000000000011</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-2.866666666666666</v>
+        <v>0.2666666666666657</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-18.06666666666667</v>
+        <v>-0.09999999999999432</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Marcedes Lewis</t>
+          <t>Geoff Swaim</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
@@ -688,19 +688,19 @@
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>10.13333333333333</v>
+        <v>7</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>7.366666666666667</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>57.93333333333333</v>
+        <v>44.76666666666667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>Marcedes Lewis</t>
+          <t>Geoff Swaim</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -709,19 +709,19 @@
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>6.766666666666667</v>
+        <v>7.066666666666666</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>5.399999999999999</v>
+        <v>6.366666666666667</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>67.13333333333334</v>
+        <v>70.06666666666666</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Marcedes Lewis</t>
+          <t>Geoff Swaim</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -730,19 +730,19 @@
         </is>
       </c>
       <c r="C13" s="3" t="n">
-        <v>-3.366666666666668</v>
+        <v>0.06666666666666643</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>-1.966666666666668</v>
+        <v>1.033333333333334</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>9.20000000000001</v>
+        <v>25.29999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>John Mundt</t>
+          <t>Gerald Everett</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -751,19 +751,19 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>9.6</v>
+        <v>10.4</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>8.666666666666666</v>
+        <v>7.033333333333334</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>80.96666666666667</v>
+        <v>52.29999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>John Mundt</t>
+          <t>Gerald Everett</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -772,19 +772,19 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>8.333333333333334</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>6.5</v>
+        <v>5.033333333333334</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>54.43333333333334</v>
+        <v>40.46666666666667</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>John Mundt</t>
+          <t>Gerald Everett</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -793,19 +793,19 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-1.266666666666666</v>
+        <v>-3.000000000000001</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-2.166666666666666</v>
+        <v>-2</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-26.53333333333333</v>
+        <v>-11.83333333333332</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>Mike Gesicki</t>
+          <t>Hayden Hurst</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="C17" s="3" t="n">
-        <v>11.73333333333333</v>
+        <v>10.1</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>7.233333333333334</v>
+        <v>7.5</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>52.03333333333333</v>
+        <v>59.46666666666667</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>Mike Gesicki</t>
+          <t>Hayden Hurst</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -835,19 +835,19 @@
         </is>
       </c>
       <c r="C18" s="3" t="n">
-        <v>9.966666666666667</v>
+        <v>9.1</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>6.8</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>51.73333333333333</v>
+        <v>49.06666666666666</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>Mike Gesicki</t>
+          <t>Hayden Hurst</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
@@ -856,19 +856,19 @@
         </is>
       </c>
       <c r="C19" s="3" t="n">
-        <v>-1.766666666666667</v>
+        <v>-1</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>-0.4333333333333345</v>
+        <v>-1.666666666666667</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>-0.3000000000000043</v>
+        <v>-10.40000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>Travis Kelce</t>
+          <t>John Mundt</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -877,19 +877,19 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>9.066666666666668</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>63.53333333333333</v>
+        <v>80.96666666666667</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>Travis Kelce</t>
+          <t>John Mundt</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -898,19 +898,19 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>10.43333333333333</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>7.699999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>61.8</v>
+        <v>54.43333333333334</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>Travis Kelce</t>
+          <t>John Mundt</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -919,19 +919,19 @@
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-2.366666666666667</v>
+        <v>-1.266666666666666</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-1.366666666666669</v>
+        <v>-2.166666666666666</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.733333333333327</v>
+        <v>-26.53333333333333</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>Nick Vannett</t>
+          <t>Marcedes Lewis</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
@@ -940,19 +940,19 @@
         </is>
       </c>
       <c r="C23" s="3" t="n">
-        <v>10.43333333333333</v>
+        <v>10.13333333333333</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>6.977777777777779</v>
+        <v>7.366666666666667</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>52.9</v>
+        <v>57.93333333333333</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>Nick Vannett</t>
+          <t>Marcedes Lewis</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -961,19 +961,19 @@
         </is>
       </c>
       <c r="C24" s="3" t="n">
-        <v>6.544444444444444</v>
+        <v>6.766666666666667</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>5.333333333333333</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="E24" s="3" t="n">
-        <v>80.3888888888889</v>
+        <v>67.13333333333334</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Nick Vannett</t>
+          <t>Marcedes Lewis</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
@@ -982,19 +982,19 @@
         </is>
       </c>
       <c r="C25" s="3" t="n">
-        <v>-3.888888888888889</v>
+        <v>-3.366666666666668</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>-1.644444444444446</v>
+        <v>-1.966666666666668</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>27.4888888888889</v>
+        <v>9.20000000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>Noah Fant</t>
+          <t>Mike Gesicki</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1003,19 +1003,19 @@
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>11.63333333333333</v>
+        <v>11.73333333333333</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>7.7</v>
+        <v>7.233333333333334</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>47.26666666666667</v>
+        <v>52.03333333333333</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>Noah Fant</t>
+          <t>Mike Gesicki</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1024,34 +1024,349 @@
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>11</v>
+        <v>9.966666666666667</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>8.366666666666667</v>
+        <v>6.8</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>57.43333333333334</v>
+        <v>51.73333333333333</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
+          <t>Mike Gesicki</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>-1.766666666666667</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>-0.4333333333333345</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>-0.3000000000000043</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>Nick Vannett</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>10.43333333333333</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>6.977777777777779</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>52.9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>Nick Vannett</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="n">
+        <v>6.544444444444444</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>80.3888888888889</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>Nick Vannett</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>-3.888888888888889</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>-1.644444444444446</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>27.4888888888889</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
           <t>Noah Fant</t>
         </is>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>11.63333333333333</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>47.26666666666667</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>Noah Fant</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>8.366666666666667</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>57.43333333333334</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Noah Fant</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>Difference</t>
         </is>
       </c>
-      <c r="C28" s="2" t="n">
+      <c r="C34" s="2" t="n">
         <v>-0.6333333333333329</v>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D34" s="2" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E34" s="2" t="n">
         <v>10.16666666666666</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>Travis Kelce</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D35" s="3" t="n">
+        <v>9.066666666666668</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>63.53333333333333</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>Travis Kelce</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>10.43333333333333</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>7.699999999999999</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>Travis Kelce</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>-2.366666666666667</v>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>-1.366666666666669</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>-1.733333333333327</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>Will Dissly</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>10.96666666666667</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>63.43333333333334</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>Will Dissly</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>8.166666666666666</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>Will Dissly</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>-0.9666666666666668</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>-0.9333333333333336</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>-0.9333333333333371</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>Zach Ertz</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="n">
+        <v>10.02222222222222</v>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>6.055555555555556</v>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>48.07777777777778</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>Zach Ertz</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="n">
+        <v>8.466666666666667</v>
+      </c>
+      <c r="D42" s="3" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>53.56666666666666</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>Zach Ertz</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="n">
+        <v>-1.555555555555557</v>
+      </c>
+      <c r="D43" s="3" t="n">
+        <v>-0.2555555555555564</v>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>5.488888888888887</v>
       </c>
     </row>
   </sheetData>
